--- a/THNL 2737-2023Copy.xlsx
+++ b/THNL 2737-2023Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfbb877ba5d26683/Desktop/Canh2025/DATN_Phuong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{7396313F-19D3-4717-8A45-3356C74E2DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7441B6DC-6DA1-47BD-89D6-E3C0346D82A3}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{7396313F-19D3-4717-8A45-3356C74E2DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0DA7FC8-6739-4A1D-A33C-5883AB348A76}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" tabRatio="595" xr2:uid="{09BF72BF-C7AE-4D9B-AF62-E0B2CCC62346}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="595" xr2:uid="{09BF72BF-C7AE-4D9B-AF62-E0B2CCC62346}"/>
   </bookViews>
   <sheets>
     <sheet name="Dam" sheetId="9" r:id="rId1"/>
@@ -37,6 +37,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -981,18 +1003,6 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,22 +1021,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,6 +1062,15 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,7 +1384,7 @@
   <dimension ref="A1:X125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1376,23 +1398,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
       <c r="R1" s="73" t="s">
         <v>35</v>
       </c>
@@ -1408,34 +1430,34 @@
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="107" t="s">
+      <c r="I3" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="104" t="s">
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="105"/>
-      <c r="O3" s="106"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="102"/>
       <c r="R3" s="74" t="s">
         <v>36</v>
       </c>
@@ -1468,12 +1490,12 @@
       <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
       <c r="J4" s="10" t="s">
         <v>1</v>
       </c>
@@ -1567,10 +1589,10 @@
       <c r="X5" s="74"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="99">
+      <c r="B6" s="105">
         <v>0</v>
       </c>
       <c r="C6" s="5"/>
@@ -1619,8 +1641,8 @@
       <c r="X6" s="74"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="102"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
@@ -1642,7 +1664,7 @@
       <c r="I7" s="37">
         <v>-269.2</v>
       </c>
-      <c r="J7" s="18" t="e">
+      <c r="J7" s="18" t="e" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">IF(cb1max(D7,E7,F7,G7,H7,I7)&gt;0,cb1max(D7,E7,F7,G7,H7,I7),"-")</f>
         <v>#NAME?</v>
       </c>
@@ -1675,8 +1697,8 @@
       <c r="X7" s="74"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="101"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1725,8 +1747,8 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="99" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="105" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="19"/>
@@ -1776,8 +1798,8 @@
       <c r="X9" s="74"/>
     </row>
     <row r="10" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="100"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="14" t="s">
         <v>10</v>
       </c>
@@ -1834,8 +1856,8 @@
       <c r="X10" s="74"/>
     </row>
     <row r="11" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1886,8 +1908,8 @@
       <c r="X11" s="74"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1">
-      <c r="A12" s="102"/>
-      <c r="B12" s="99" t="s">
+      <c r="A12" s="108"/>
+      <c r="B12" s="105" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="5"/>
@@ -1938,8 +1960,8 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
@@ -1996,8 +2018,8 @@
       <c r="X13" s="74"/>
     </row>
     <row r="14" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A14" s="102"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
@@ -2048,10 +2070,10 @@
       <c r="X14" s="74"/>
     </row>
     <row r="15" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="105">
         <v>0</v>
       </c>
       <c r="D15" s="19"/>
@@ -2101,8 +2123,8 @@
       <c r="X15" s="74"/>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="14" t="s">
         <v>10</v>
       </c>
@@ -2159,8 +2181,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
@@ -2196,8 +2218,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="99" t="s">
+      <c r="A18" s="108"/>
+      <c r="B18" s="105" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="5"/>
@@ -2233,8 +2255,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="14" t="s">
         <v>10</v>
       </c>
@@ -2276,8 +2298,8 @@
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
@@ -2313,8 +2335,8 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="99" t="s">
+      <c r="A21" s="108"/>
+      <c r="B21" s="105" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="19"/>
@@ -2349,8 +2371,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="100"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="14" t="s">
         <v>10</v>
       </c>
@@ -2392,8 +2414,8 @@
       <c r="O22" s="19"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="102"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
@@ -2429,10 +2451,10 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="99">
+      <c r="B24" s="105">
         <v>0</v>
       </c>
       <c r="C24" s="5"/>
@@ -2468,8 +2490,8 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="14" t="s">
         <v>10</v>
       </c>
@@ -2511,8 +2533,8 @@
       <c r="O25" s="19"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="102"/>
-      <c r="B26" s="101"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
@@ -2548,8 +2570,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="102"/>
-      <c r="B27" s="99" t="s">
+      <c r="A27" s="108"/>
+      <c r="B27" s="105" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="19"/>
@@ -2584,8 +2606,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1">
-      <c r="A28" s="102"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="14" t="s">
         <v>10</v>
       </c>
@@ -2627,8 +2649,8 @@
       <c r="O28" s="19"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="101"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
@@ -2664,8 +2686,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A30" s="102"/>
-      <c r="B30" s="99" t="s">
+      <c r="A30" s="108"/>
+      <c r="B30" s="105" t="s">
         <v>96</v>
       </c>
       <c r="C30" s="5"/>
@@ -2701,8 +2723,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A31" s="102"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="14" t="s">
         <v>10</v>
       </c>
@@ -2744,8 +2766,8 @@
       <c r="O31" s="19"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="101"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
@@ -2781,10 +2803,10 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="99">
+      <c r="B33" s="105">
         <v>0</v>
       </c>
       <c r="C33" s="6"/>
@@ -2820,8 +2842,8 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="100"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="106"/>
       <c r="C34" s="14" t="s">
         <v>10</v>
       </c>
@@ -2863,8 +2885,8 @@
       <c r="O34" s="19"/>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="101"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="107"/>
       <c r="C35" s="8" t="s">
         <v>12</v>
       </c>
@@ -2900,8 +2922,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1">
-      <c r="A36" s="102"/>
-      <c r="B36" s="99" t="s">
+      <c r="A36" s="108"/>
+      <c r="B36" s="105" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="5"/>
@@ -2937,8 +2959,8 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="14" t="s">
         <v>10</v>
       </c>
@@ -2980,8 +3002,8 @@
       <c r="O37" s="19"/>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A38" s="102"/>
-      <c r="B38" s="101"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="8" t="s">
         <v>12</v>
       </c>
@@ -3017,8 +3039,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="99" t="s">
+      <c r="A39" s="108"/>
+      <c r="B39" s="105" t="s">
         <v>96</v>
       </c>
       <c r="D39" s="19"/>
@@ -3053,8 +3075,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
-      <c r="A40" s="102"/>
-      <c r="B40" s="100"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="106"/>
       <c r="C40" s="14" t="s">
         <v>10</v>
       </c>
@@ -3096,8 +3118,8 @@
       <c r="O40" s="19"/>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1">
-      <c r="A41" s="102"/>
-      <c r="B41" s="101"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="8" t="s">
         <v>12</v>
       </c>
@@ -3133,10 +3155,10 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="99">
+      <c r="B42" s="105">
         <v>0</v>
       </c>
       <c r="C42" s="5"/>
@@ -3172,8 +3194,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A43" s="102"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="106"/>
       <c r="C43" s="14" t="s">
         <v>10</v>
       </c>
@@ -3215,8 +3237,8 @@
       <c r="O43" s="19"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
-      <c r="A44" s="102"/>
-      <c r="B44" s="101"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="8" t="s">
         <v>12</v>
       </c>
@@ -3252,8 +3274,8 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1">
-      <c r="A45" s="102"/>
-      <c r="B45" s="99" t="s">
+      <c r="A45" s="108"/>
+      <c r="B45" s="105" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="19"/>
@@ -3288,8 +3310,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A46" s="102"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="106"/>
       <c r="C46" s="14" t="s">
         <v>10</v>
       </c>
@@ -3331,8 +3353,8 @@
       <c r="O46" s="19"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A47" s="102"/>
-      <c r="B47" s="101"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="8" t="s">
         <v>12</v>
       </c>
@@ -3368,8 +3390,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1">
-      <c r="A48" s="102"/>
-      <c r="B48" s="99" t="s">
+      <c r="A48" s="108"/>
+      <c r="B48" s="105" t="s">
         <v>96</v>
       </c>
       <c r="C48" s="5"/>
@@ -3405,8 +3427,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1">
-      <c r="A49" s="102"/>
-      <c r="B49" s="100"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="106"/>
       <c r="C49" s="14" t="s">
         <v>10</v>
       </c>
@@ -3448,8 +3470,8 @@
       <c r="O49" s="19"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A50" s="102"/>
-      <c r="B50" s="101"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="8" t="s">
         <v>12</v>
       </c>
@@ -3485,10 +3507,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="99">
+      <c r="B51" s="105">
         <v>0</v>
       </c>
       <c r="D51" s="19"/>
@@ -3523,8 +3545,8 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1">
-      <c r="A52" s="102"/>
-      <c r="B52" s="100"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="106"/>
       <c r="C52" s="14" t="s">
         <v>10</v>
       </c>
@@ -3566,8 +3588,8 @@
       <c r="O52" s="19"/>
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1">
-      <c r="A53" s="102"/>
-      <c r="B53" s="101"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="8" t="s">
         <v>12</v>
       </c>
@@ -3603,8 +3625,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A54" s="102"/>
-      <c r="B54" s="99" t="s">
+      <c r="A54" s="108"/>
+      <c r="B54" s="105" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="5"/>
@@ -3640,8 +3662,8 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A55" s="102"/>
-      <c r="B55" s="100"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="106"/>
       <c r="C55" s="14" t="s">
         <v>10</v>
       </c>
@@ -3683,8 +3705,8 @@
       <c r="O55" s="19"/>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1">
-      <c r="A56" s="102"/>
-      <c r="B56" s="101"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="8" t="s">
         <v>12</v>
       </c>
@@ -3720,8 +3742,8 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1">
-      <c r="A57" s="102"/>
-      <c r="B57" s="99" t="s">
+      <c r="A57" s="108"/>
+      <c r="B57" s="105" t="s">
         <v>96</v>
       </c>
       <c r="D57" s="19"/>
@@ -3756,8 +3778,8 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A58" s="102"/>
-      <c r="B58" s="100"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="106"/>
       <c r="C58" s="14" t="s">
         <v>10</v>
       </c>
@@ -3799,8 +3821,8 @@
       <c r="O58" s="19"/>
     </row>
     <row r="59" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A59" s="102"/>
-      <c r="B59" s="101"/>
+      <c r="A59" s="108"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="8" t="s">
         <v>12</v>
       </c>
@@ -3836,10 +3858,10 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="99">
+      <c r="B60" s="105">
         <v>0</v>
       </c>
       <c r="C60" s="5"/>
@@ -3875,8 +3897,8 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1">
-      <c r="A61" s="102"/>
-      <c r="B61" s="100"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="106"/>
       <c r="C61" s="14" t="s">
         <v>10</v>
       </c>
@@ -3918,8 +3940,8 @@
       <c r="O61" s="19"/>
     </row>
     <row r="62" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A62" s="102"/>
-      <c r="B62" s="101"/>
+      <c r="A62" s="108"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="8" t="s">
         <v>12</v>
       </c>
@@ -3955,8 +3977,8 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A63" s="102"/>
-      <c r="B63" s="99" t="s">
+      <c r="A63" s="108"/>
+      <c r="B63" s="105" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="19"/>
@@ -3991,8 +4013,8 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1">
-      <c r="A64" s="102"/>
-      <c r="B64" s="100"/>
+      <c r="A64" s="108"/>
+      <c r="B64" s="106"/>
       <c r="C64" s="14" t="s">
         <v>10</v>
       </c>
@@ -4034,8 +4056,8 @@
       <c r="O64" s="19"/>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1">
-      <c r="A65" s="102"/>
-      <c r="B65" s="101"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="8" t="s">
         <v>12</v>
       </c>
@@ -4071,8 +4093,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A66" s="102"/>
-      <c r="B66" s="99" t="s">
+      <c r="A66" s="108"/>
+      <c r="B66" s="105" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="5"/>
@@ -4108,8 +4130,8 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A67" s="102"/>
-      <c r="B67" s="100"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="106"/>
       <c r="C67" s="14" t="s">
         <v>10</v>
       </c>
@@ -4151,8 +4173,8 @@
       <c r="O67" s="19"/>
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1">
-      <c r="A68" s="102"/>
-      <c r="B68" s="101"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="8" t="s">
         <v>12</v>
       </c>
@@ -4188,10 +4210,10 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1">
-      <c r="A69" s="102" t="s">
+      <c r="A69" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="99">
+      <c r="B69" s="105">
         <v>0</v>
       </c>
       <c r="D69" s="19"/>
@@ -4226,8 +4248,8 @@
       </c>
     </row>
     <row r="70" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A70" s="102"/>
-      <c r="B70" s="100"/>
+      <c r="A70" s="108"/>
+      <c r="B70" s="106"/>
       <c r="C70" s="14" t="s">
         <v>10</v>
       </c>
@@ -4269,8 +4291,8 @@
       <c r="O70" s="19"/>
     </row>
     <row r="71" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A71" s="102"/>
-      <c r="B71" s="101"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="107"/>
       <c r="C71" s="8" t="s">
         <v>12</v>
       </c>
@@ -4306,8 +4328,8 @@
       </c>
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1">
-      <c r="A72" s="102"/>
-      <c r="B72" s="99" t="s">
+      <c r="A72" s="108"/>
+      <c r="B72" s="105" t="s">
         <v>95</v>
       </c>
       <c r="C72" s="5"/>
@@ -4343,8 +4365,8 @@
       </c>
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1">
-      <c r="A73" s="102"/>
-      <c r="B73" s="100"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="106"/>
       <c r="C73" s="14" t="s">
         <v>10</v>
       </c>
@@ -4386,8 +4408,8 @@
       <c r="O73" s="19"/>
     </row>
     <row r="74" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A74" s="102"/>
-      <c r="B74" s="101"/>
+      <c r="A74" s="108"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="8" t="s">
         <v>12</v>
       </c>
@@ -4423,8 +4445,8 @@
       </c>
     </row>
     <row r="75" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A75" s="102"/>
-      <c r="B75" s="99" t="s">
+      <c r="A75" s="108"/>
+      <c r="B75" s="105" t="s">
         <v>96</v>
       </c>
       <c r="C75" s="6"/>
@@ -4460,8 +4482,8 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" customHeight="1">
-      <c r="A76" s="102"/>
-      <c r="B76" s="100"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="106"/>
       <c r="C76" s="14" t="s">
         <v>10</v>
       </c>
@@ -4503,8 +4525,8 @@
       <c r="O76" s="19"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1">
-      <c r="A77" s="102"/>
-      <c r="B77" s="101"/>
+      <c r="A77" s="108"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="8" t="s">
         <v>12</v>
       </c>
@@ -4540,10 +4562,10 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="99">
+      <c r="B78" s="105">
         <v>0</v>
       </c>
       <c r="D78" s="19"/>
@@ -4578,8 +4600,8 @@
       </c>
     </row>
     <row r="79" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A79" s="102"/>
-      <c r="B79" s="100"/>
+      <c r="A79" s="108"/>
+      <c r="B79" s="106"/>
       <c r="C79" s="14" t="s">
         <v>10</v>
       </c>
@@ -4621,8 +4643,8 @@
       <c r="O79" s="19"/>
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1">
-      <c r="A80" s="102"/>
-      <c r="B80" s="101"/>
+      <c r="A80" s="108"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="8" t="s">
         <v>12</v>
       </c>
@@ -4658,8 +4680,8 @@
       </c>
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1">
-      <c r="A81" s="102"/>
-      <c r="B81" s="99" t="s">
+      <c r="A81" s="108"/>
+      <c r="B81" s="105" t="s">
         <v>95</v>
       </c>
       <c r="C81" s="5"/>
@@ -4695,8 +4717,8 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A82" s="102"/>
-      <c r="B82" s="100"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="106"/>
       <c r="C82" s="14" t="s">
         <v>10</v>
       </c>
@@ -4738,8 +4760,8 @@
       <c r="O82" s="19"/>
     </row>
     <row r="83" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A83" s="102"/>
-      <c r="B83" s="101"/>
+      <c r="A83" s="108"/>
+      <c r="B83" s="107"/>
       <c r="C83" s="8" t="s">
         <v>12</v>
       </c>
@@ -4775,8 +4797,8 @@
       </c>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1">
-      <c r="A84" s="102"/>
-      <c r="B84" s="99" t="s">
+      <c r="A84" s="108"/>
+      <c r="B84" s="105" t="s">
         <v>96</v>
       </c>
       <c r="C84" s="6"/>
@@ -4812,8 +4834,8 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1">
-      <c r="A85" s="102"/>
-      <c r="B85" s="100"/>
+      <c r="A85" s="108"/>
+      <c r="B85" s="106"/>
       <c r="C85" s="14" t="s">
         <v>10</v>
       </c>
@@ -4855,8 +4877,8 @@
       <c r="O85" s="19"/>
     </row>
     <row r="86" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A86" s="102"/>
-      <c r="B86" s="101"/>
+      <c r="A86" s="108"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="8" t="s">
         <v>12</v>
       </c>
@@ -5010,15 +5032,26 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A60:A68"/>
     <mergeCell ref="A69:A77"/>
@@ -5035,26 +5068,15 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5095,95 +5117,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.2" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
       <c r="T1" s="59"/>
       <c r="V1" s="73" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="3.6" customHeight="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="113" t="s">
+      <c r="H3" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="113" t="s">
+      <c r="I3" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="119" t="s">
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="121"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="118"/>
       <c r="V3" s="74" t="s">
         <v>36</v>
       </c>
@@ -5207,15 +5229,15 @@
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="86" t="s">
         <v>24</v>
       </c>
@@ -5261,15 +5283,15 @@
       <c r="AB4" s="74"/>
     </row>
     <row r="5" spans="1:28" ht="13.8">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="87" t="s">
         <v>28</v>
       </c>
@@ -5316,15 +5338,15 @@
       <c r="AB5" s="74"/>
     </row>
     <row r="6" spans="1:28" ht="13.8">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="87" t="s">
         <v>3</v>
       </c>
@@ -5445,10 +5467,10 @@
       <c r="AB7" s="74"/>
     </row>
     <row r="8" spans="1:28" ht="13.8">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="81"/>
@@ -5515,8 +5537,8 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.8">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="82" t="s">
         <v>30</v>
       </c>
@@ -5596,8 +5618,8 @@
       <c r="AB9" s="74"/>
     </row>
     <row r="10" spans="1:28" ht="13.8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="82" t="s">
         <v>31</v>
       </c>
@@ -5677,8 +5699,8 @@
       <c r="AB10" s="74"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="82" t="s">
         <v>11</v>
       </c>
@@ -5758,8 +5780,8 @@
       <c r="AB11" s="74"/>
     </row>
     <row r="12" spans="1:28" ht="17.399999999999999">
-      <c r="A12" s="111"/>
-      <c r="B12" s="110" t="s">
+      <c r="A12" s="120"/>
+      <c r="B12" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="81"/>
@@ -5828,8 +5850,8 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="17.399999999999999">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="120"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="82" t="s">
         <v>30</v>
       </c>
@@ -5909,8 +5931,8 @@
       <c r="AB13" s="74"/>
     </row>
     <row r="14" spans="1:28" ht="17.399999999999999">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="82" t="s">
         <v>31</v>
       </c>
@@ -5990,8 +6012,8 @@
       <c r="AB14" s="74"/>
     </row>
     <row r="15" spans="1:28" ht="17.399999999999999">
-      <c r="A15" s="112"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="82" t="s">
         <v>11</v>
       </c>
@@ -6071,10 +6093,10 @@
       <c r="AB15" s="74"/>
     </row>
     <row r="16" spans="1:28" ht="17.399999999999999">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="81"/>
@@ -6143,8 +6165,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="17.399999999999999">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="82" t="s">
         <v>30</v>
       </c>
@@ -6209,8 +6231,8 @@
       <c r="U17" s="52"/>
     </row>
     <row r="18" spans="1:21" ht="17.399999999999999">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="82" t="s">
         <v>31</v>
       </c>
@@ -6275,8 +6297,8 @@
       <c r="U18" s="52"/>
     </row>
     <row r="19" spans="1:21" ht="17.399999999999999">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="120"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="82" t="s">
         <v>11</v>
       </c>
@@ -6341,8 +6363,8 @@
       <c r="U19" s="52"/>
     </row>
     <row r="20" spans="1:21" ht="17.399999999999999">
-      <c r="A20" s="111"/>
-      <c r="B20" s="110" t="s">
+      <c r="A20" s="120"/>
+      <c r="B20" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="81"/>
@@ -6396,8 +6418,8 @@
       <c r="U20" s="52"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="82" t="s">
         <v>30</v>
       </c>
@@ -6462,8 +6484,8 @@
       <c r="U21" s="53"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="82" t="s">
         <v>31</v>
       </c>
@@ -6528,8 +6550,8 @@
       <c r="U22" s="53"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="82" t="s">
         <v>11</v>
       </c>
@@ -6594,10 +6616,10 @@
       <c r="U23" s="53"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="81"/>
@@ -6651,8 +6673,8 @@
       <c r="U24" s="53"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="82" t="s">
         <v>30</v>
       </c>
@@ -6717,8 +6739,8 @@
       <c r="U25" s="53"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
       <c r="C26" s="82" t="s">
         <v>31</v>
       </c>
@@ -6783,8 +6805,8 @@
       <c r="U26" s="53"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="111"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="82" t="s">
         <v>11</v>
       </c>
@@ -6849,8 +6871,8 @@
       <c r="U27" s="53"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="111"/>
-      <c r="B28" s="110" t="s">
+      <c r="A28" s="120"/>
+      <c r="B28" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C28" s="81"/>
@@ -6903,8 +6925,8 @@
       <c r="T28" s="61"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="82" t="s">
         <v>30</v>
       </c>
@@ -6968,8 +6990,8 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="82" t="s">
         <v>31</v>
       </c>
@@ -7033,8 +7055,8 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="112"/>
-      <c r="B31" s="112"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="83" t="s">
         <v>11</v>
       </c>
@@ -7098,10 +7120,10 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C32" s="81"/>
@@ -7153,8 +7175,8 @@
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="82" t="s">
         <v>30</v>
       </c>
@@ -7218,8 +7240,8 @@
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
+      <c r="A34" s="120"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="82" t="s">
         <v>31</v>
       </c>
@@ -7283,8 +7305,8 @@
       </c>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
+      <c r="A35" s="120"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="82" t="s">
         <v>11</v>
       </c>
@@ -7348,8 +7370,8 @@
       </c>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="111"/>
-      <c r="B36" s="110" t="s">
+      <c r="A36" s="120"/>
+      <c r="B36" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C36" s="81"/>
@@ -7401,8 +7423,8 @@
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="120"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="82" t="s">
         <v>30</v>
       </c>
@@ -7466,8 +7488,8 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="82" t="s">
         <v>31</v>
       </c>
@@ -7531,8 +7553,8 @@
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="112"/>
-      <c r="B39" s="112"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="121"/>
       <c r="C39" s="82" t="s">
         <v>11</v>
       </c>
@@ -7596,10 +7618,10 @@
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="81"/>
@@ -7651,8 +7673,8 @@
       </c>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="82" t="s">
         <v>30</v>
       </c>
@@ -7716,8 +7738,8 @@
       </c>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="111"/>
-      <c r="B42" s="111"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="120"/>
       <c r="C42" s="82" t="s">
         <v>31</v>
       </c>
@@ -7781,8 +7803,8 @@
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="111"/>
-      <c r="B43" s="112"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="121"/>
       <c r="C43" s="82" t="s">
         <v>11</v>
       </c>
@@ -7846,8 +7868,8 @@
       </c>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="111"/>
-      <c r="B44" s="110" t="s">
+      <c r="A44" s="120"/>
+      <c r="B44" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="81"/>
@@ -7899,8 +7921,8 @@
       </c>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="111"/>
-      <c r="B45" s="111"/>
+      <c r="A45" s="120"/>
+      <c r="B45" s="120"/>
       <c r="C45" s="82" t="s">
         <v>30</v>
       </c>
@@ -7964,8 +7986,8 @@
       </c>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="120"/>
+      <c r="B46" s="120"/>
       <c r="C46" s="82" t="s">
         <v>31</v>
       </c>
@@ -8029,8 +8051,8 @@
       </c>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="112"/>
-      <c r="B47" s="112"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="83" t="s">
         <v>11</v>
       </c>
@@ -8094,10 +8116,10 @@
       </c>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="110" t="s">
+      <c r="A48" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="81"/>
@@ -8149,8 +8171,8 @@
       </c>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="111"/>
-      <c r="B49" s="111"/>
+      <c r="A49" s="120"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="82" t="s">
         <v>30</v>
       </c>
@@ -8214,8 +8236,8 @@
       </c>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="111"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="120"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="82" t="s">
         <v>31</v>
       </c>
@@ -8279,8 +8301,8 @@
       </c>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="111"/>
-      <c r="B51" s="112"/>
+      <c r="A51" s="120"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="82" t="s">
         <v>11</v>
       </c>
@@ -8344,8 +8366,8 @@
       </c>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="111"/>
-      <c r="B52" s="110" t="s">
+      <c r="A52" s="120"/>
+      <c r="B52" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C52" s="81"/>
@@ -8397,8 +8419,8 @@
       </c>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111"/>
+      <c r="A53" s="120"/>
+      <c r="B53" s="120"/>
       <c r="C53" s="82" t="s">
         <v>30</v>
       </c>
@@ -8462,8 +8484,8 @@
       </c>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="120"/>
+      <c r="B54" s="120"/>
       <c r="C54" s="82" t="s">
         <v>31</v>
       </c>
@@ -8527,8 +8549,8 @@
       </c>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="112"/>
-      <c r="B55" s="112"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="121"/>
       <c r="C55" s="82" t="s">
         <v>11</v>
       </c>
@@ -8592,10 +8614,10 @@
       </c>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="110" t="s">
+      <c r="A56" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="110" t="s">
+      <c r="B56" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C56" s="81"/>
@@ -8647,8 +8669,8 @@
       </c>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="111"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="120"/>
+      <c r="B57" s="120"/>
       <c r="C57" s="82" t="s">
         <v>30</v>
       </c>
@@ -8712,8 +8734,8 @@
       </c>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="111"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="120"/>
+      <c r="B58" s="120"/>
       <c r="C58" s="82" t="s">
         <v>31</v>
       </c>
@@ -8777,8 +8799,8 @@
       </c>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="111"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="120"/>
+      <c r="B59" s="121"/>
       <c r="C59" s="82" t="s">
         <v>11</v>
       </c>
@@ -8842,8 +8864,8 @@
       </c>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="111"/>
-      <c r="B60" s="110" t="s">
+      <c r="A60" s="120"/>
+      <c r="B60" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C60" s="81"/>
@@ -8895,8 +8917,8 @@
       </c>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="111"/>
-      <c r="B61" s="111"/>
+      <c r="A61" s="120"/>
+      <c r="B61" s="120"/>
       <c r="C61" s="82" t="s">
         <v>30</v>
       </c>
@@ -8960,8 +8982,8 @@
       </c>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="111"/>
-      <c r="B62" s="111"/>
+      <c r="A62" s="120"/>
+      <c r="B62" s="120"/>
       <c r="C62" s="82" t="s">
         <v>31</v>
       </c>
@@ -9025,8 +9047,8 @@
       </c>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="112"/>
-      <c r="B63" s="112"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="121"/>
       <c r="C63" s="83" t="s">
         <v>11</v>
       </c>
@@ -9090,10 +9112,10 @@
       </c>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="110" t="s">
+      <c r="A64" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="110" t="s">
+      <c r="B64" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="81"/>
@@ -9145,8 +9167,8 @@
       </c>
     </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="111"/>
-      <c r="B65" s="111"/>
+      <c r="A65" s="120"/>
+      <c r="B65" s="120"/>
       <c r="C65" s="82" t="s">
         <v>30</v>
       </c>
@@ -9210,8 +9232,8 @@
       </c>
     </row>
     <row r="66" spans="1:19">
-      <c r="A66" s="111"/>
-      <c r="B66" s="111"/>
+      <c r="A66" s="120"/>
+      <c r="B66" s="120"/>
       <c r="C66" s="82" t="s">
         <v>31</v>
       </c>
@@ -9275,8 +9297,8 @@
       </c>
     </row>
     <row r="67" spans="1:19">
-      <c r="A67" s="111"/>
-      <c r="B67" s="112"/>
+      <c r="A67" s="120"/>
+      <c r="B67" s="121"/>
       <c r="C67" s="82" t="s">
         <v>11</v>
       </c>
@@ -9340,8 +9362,8 @@
       </c>
     </row>
     <row r="68" spans="1:19">
-      <c r="A68" s="111"/>
-      <c r="B68" s="110" t="s">
+      <c r="A68" s="120"/>
+      <c r="B68" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C68" s="81"/>
@@ -9393,8 +9415,8 @@
       </c>
     </row>
     <row r="69" spans="1:19">
-      <c r="A69" s="111"/>
-      <c r="B69" s="111"/>
+      <c r="A69" s="120"/>
+      <c r="B69" s="120"/>
       <c r="C69" s="82" t="s">
         <v>30</v>
       </c>
@@ -9458,8 +9480,8 @@
       </c>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="111"/>
-      <c r="B70" s="111"/>
+      <c r="A70" s="120"/>
+      <c r="B70" s="120"/>
       <c r="C70" s="82" t="s">
         <v>31</v>
       </c>
@@ -9523,8 +9545,8 @@
       </c>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="112"/>
-      <c r="B71" s="112"/>
+      <c r="A71" s="121"/>
+      <c r="B71" s="121"/>
       <c r="C71" s="82" t="s">
         <v>11</v>
       </c>
@@ -9588,10 +9610,10 @@
       </c>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="110" t="s">
+      <c r="A72" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="110" t="s">
+      <c r="B72" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="81"/>
@@ -9643,8 +9665,8 @@
       </c>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="111"/>
-      <c r="B73" s="111"/>
+      <c r="A73" s="120"/>
+      <c r="B73" s="120"/>
       <c r="C73" s="82" t="s">
         <v>30</v>
       </c>
@@ -9708,8 +9730,8 @@
       </c>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="111"/>
-      <c r="B74" s="111"/>
+      <c r="A74" s="120"/>
+      <c r="B74" s="120"/>
       <c r="C74" s="82" t="s">
         <v>31</v>
       </c>
@@ -9773,8 +9795,8 @@
       </c>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="111"/>
-      <c r="B75" s="112"/>
+      <c r="A75" s="120"/>
+      <c r="B75" s="121"/>
       <c r="C75" s="82" t="s">
         <v>11</v>
       </c>
@@ -9838,8 +9860,8 @@
       </c>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="111"/>
-      <c r="B76" s="110" t="s">
+      <c r="A76" s="120"/>
+      <c r="B76" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="81"/>
@@ -9891,8 +9913,8 @@
       </c>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="111"/>
-      <c r="B77" s="111"/>
+      <c r="A77" s="120"/>
+      <c r="B77" s="120"/>
       <c r="C77" s="82" t="s">
         <v>30</v>
       </c>
@@ -9956,8 +9978,8 @@
       </c>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="111"/>
-      <c r="B78" s="111"/>
+      <c r="A78" s="120"/>
+      <c r="B78" s="120"/>
       <c r="C78" s="82" t="s">
         <v>31</v>
       </c>
@@ -10021,8 +10043,8 @@
       </c>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="112"/>
-      <c r="B79" s="112"/>
+      <c r="A79" s="121"/>
+      <c r="B79" s="121"/>
       <c r="C79" s="83" t="s">
         <v>11</v>
       </c>
@@ -10086,10 +10108,10 @@
       </c>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="110" t="s">
+      <c r="A80" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="110" t="s">
+      <c r="B80" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="81"/>
@@ -10141,8 +10163,8 @@
       </c>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="111"/>
-      <c r="B81" s="111"/>
+      <c r="A81" s="120"/>
+      <c r="B81" s="120"/>
       <c r="C81" s="82" t="s">
         <v>30</v>
       </c>
@@ -10206,8 +10228,8 @@
       </c>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="111"/>
-      <c r="B82" s="111"/>
+      <c r="A82" s="120"/>
+      <c r="B82" s="120"/>
       <c r="C82" s="82" t="s">
         <v>31</v>
       </c>
@@ -10271,8 +10293,8 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="111"/>
-      <c r="B83" s="112"/>
+      <c r="A83" s="120"/>
+      <c r="B83" s="121"/>
       <c r="C83" s="82" t="s">
         <v>11</v>
       </c>
@@ -10336,8 +10358,8 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="111"/>
-      <c r="B84" s="110" t="s">
+      <c r="A84" s="120"/>
+      <c r="B84" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C84" s="81"/>
@@ -10389,8 +10411,8 @@
       </c>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="111"/>
-      <c r="B85" s="111"/>
+      <c r="A85" s="120"/>
+      <c r="B85" s="120"/>
       <c r="C85" s="82" t="s">
         <v>30</v>
       </c>
@@ -10454,8 +10476,8 @@
       </c>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="111"/>
-      <c r="B86" s="111"/>
+      <c r="A86" s="120"/>
+      <c r="B86" s="120"/>
       <c r="C86" s="82" t="s">
         <v>31</v>
       </c>
@@ -10519,8 +10541,8 @@
       </c>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="112"/>
-      <c r="B87" s="112"/>
+      <c r="A87" s="121"/>
+      <c r="B87" s="121"/>
       <c r="C87" s="82" t="s">
         <v>11</v>
       </c>
@@ -10584,10 +10606,10 @@
       </c>
     </row>
     <row r="88" spans="1:19">
-      <c r="A88" s="110" t="s">
+      <c r="A88" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="B88" s="110" t="s">
+      <c r="B88" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C88" s="81"/>
@@ -10639,8 +10661,8 @@
       </c>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="111"/>
-      <c r="B89" s="111"/>
+      <c r="A89" s="120"/>
+      <c r="B89" s="120"/>
       <c r="C89" s="82" t="s">
         <v>30</v>
       </c>
@@ -10704,8 +10726,8 @@
       </c>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="111"/>
-      <c r="B90" s="111"/>
+      <c r="A90" s="120"/>
+      <c r="B90" s="120"/>
       <c r="C90" s="82" t="s">
         <v>31</v>
       </c>
@@ -10769,8 +10791,8 @@
       </c>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="111"/>
-      <c r="B91" s="112"/>
+      <c r="A91" s="120"/>
+      <c r="B91" s="121"/>
       <c r="C91" s="82" t="s">
         <v>11</v>
       </c>
@@ -10834,8 +10856,8 @@
       </c>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="111"/>
-      <c r="B92" s="110" t="s">
+      <c r="A92" s="120"/>
+      <c r="B92" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="81"/>
@@ -10887,8 +10909,8 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="111"/>
-      <c r="B93" s="111"/>
+      <c r="A93" s="120"/>
+      <c r="B93" s="120"/>
       <c r="C93" s="82" t="s">
         <v>30</v>
       </c>
@@ -10952,8 +10974,8 @@
       </c>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="111"/>
-      <c r="B94" s="111"/>
+      <c r="A94" s="120"/>
+      <c r="B94" s="120"/>
       <c r="C94" s="82" t="s">
         <v>31</v>
       </c>
@@ -11017,8 +11039,8 @@
       </c>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="112"/>
-      <c r="B95" s="112"/>
+      <c r="A95" s="121"/>
+      <c r="B95" s="121"/>
       <c r="C95" s="83" t="s">
         <v>11</v>
       </c>
@@ -11082,10 +11104,10 @@
       </c>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="110" t="s">
+      <c r="A96" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="B96" s="110" t="s">
+      <c r="B96" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C96" s="81"/>
@@ -11137,8 +11159,8 @@
       </c>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="111"/>
-      <c r="B97" s="111"/>
+      <c r="A97" s="120"/>
+      <c r="B97" s="120"/>
       <c r="C97" s="82" t="s">
         <v>30</v>
       </c>
@@ -11202,8 +11224,8 @@
       </c>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="111"/>
-      <c r="B98" s="111"/>
+      <c r="A98" s="120"/>
+      <c r="B98" s="120"/>
       <c r="C98" s="82" t="s">
         <v>31</v>
       </c>
@@ -11267,8 +11289,8 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="111"/>
-      <c r="B99" s="112"/>
+      <c r="A99" s="120"/>
+      <c r="B99" s="121"/>
       <c r="C99" s="82" t="s">
         <v>11</v>
       </c>
@@ -11332,8 +11354,8 @@
       </c>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="111"/>
-      <c r="B100" s="110" t="s">
+      <c r="A100" s="120"/>
+      <c r="B100" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C100" s="81"/>
@@ -11385,8 +11407,8 @@
       </c>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="111"/>
-      <c r="B101" s="111"/>
+      <c r="A101" s="120"/>
+      <c r="B101" s="120"/>
       <c r="C101" s="82" t="s">
         <v>30</v>
       </c>
@@ -11450,8 +11472,8 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="111"/>
-      <c r="B102" s="111"/>
+      <c r="A102" s="120"/>
+      <c r="B102" s="120"/>
       <c r="C102" s="82" t="s">
         <v>31</v>
       </c>
@@ -11515,8 +11537,8 @@
       </c>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="112"/>
-      <c r="B103" s="112"/>
+      <c r="A103" s="121"/>
+      <c r="B103" s="121"/>
       <c r="C103" s="82" t="s">
         <v>11</v>
       </c>
@@ -11580,10 +11602,10 @@
       </c>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="110" t="s">
+      <c r="A104" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="B104" s="110" t="s">
+      <c r="B104" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C104" s="81"/>
@@ -11635,8 +11657,8 @@
       </c>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="111"/>
-      <c r="B105" s="111"/>
+      <c r="A105" s="120"/>
+      <c r="B105" s="120"/>
       <c r="C105" s="82" t="s">
         <v>30</v>
       </c>
@@ -11700,8 +11722,8 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="111"/>
-      <c r="B106" s="111"/>
+      <c r="A106" s="120"/>
+      <c r="B106" s="120"/>
       <c r="C106" s="82" t="s">
         <v>31</v>
       </c>
@@ -11765,8 +11787,8 @@
       </c>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="111"/>
-      <c r="B107" s="112"/>
+      <c r="A107" s="120"/>
+      <c r="B107" s="121"/>
       <c r="C107" s="82" t="s">
         <v>11</v>
       </c>
@@ -11830,8 +11852,8 @@
       </c>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="111"/>
-      <c r="B108" s="110" t="s">
+      <c r="A108" s="120"/>
+      <c r="B108" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C108" s="81"/>
@@ -11883,8 +11905,8 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="111"/>
-      <c r="B109" s="111"/>
+      <c r="A109" s="120"/>
+      <c r="B109" s="120"/>
       <c r="C109" s="82" t="s">
         <v>30</v>
       </c>
@@ -11948,8 +11970,8 @@
       </c>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="111"/>
-      <c r="B110" s="111"/>
+      <c r="A110" s="120"/>
+      <c r="B110" s="120"/>
       <c r="C110" s="82" t="s">
         <v>31</v>
       </c>
@@ -12013,8 +12035,8 @@
       </c>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="112"/>
-      <c r="B111" s="112"/>
+      <c r="A111" s="121"/>
+      <c r="B111" s="121"/>
       <c r="C111" s="83" t="s">
         <v>11</v>
       </c>
@@ -12078,10 +12100,10 @@
       </c>
     </row>
     <row r="112" spans="1:19">
-      <c r="A112" s="110" t="s">
+      <c r="A112" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="B112" s="110" t="s">
+      <c r="B112" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C112" s="81"/>
@@ -12133,8 +12155,8 @@
       </c>
     </row>
     <row r="113" spans="1:19">
-      <c r="A113" s="111"/>
-      <c r="B113" s="111"/>
+      <c r="A113" s="120"/>
+      <c r="B113" s="120"/>
       <c r="C113" s="82" t="s">
         <v>30</v>
       </c>
@@ -12198,8 +12220,8 @@
       </c>
     </row>
     <row r="114" spans="1:19">
-      <c r="A114" s="111"/>
-      <c r="B114" s="111"/>
+      <c r="A114" s="120"/>
+      <c r="B114" s="120"/>
       <c r="C114" s="82" t="s">
         <v>31</v>
       </c>
@@ -12263,8 +12285,8 @@
       </c>
     </row>
     <row r="115" spans="1:19">
-      <c r="A115" s="111"/>
-      <c r="B115" s="112"/>
+      <c r="A115" s="120"/>
+      <c r="B115" s="121"/>
       <c r="C115" s="82" t="s">
         <v>11</v>
       </c>
@@ -12328,8 +12350,8 @@
       </c>
     </row>
     <row r="116" spans="1:19">
-      <c r="A116" s="111"/>
-      <c r="B116" s="110" t="s">
+      <c r="A116" s="120"/>
+      <c r="B116" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C116" s="81"/>
@@ -12381,8 +12403,8 @@
       </c>
     </row>
     <row r="117" spans="1:19">
-      <c r="A117" s="111"/>
-      <c r="B117" s="111"/>
+      <c r="A117" s="120"/>
+      <c r="B117" s="120"/>
       <c r="C117" s="82" t="s">
         <v>30</v>
       </c>
@@ -12446,8 +12468,8 @@
       </c>
     </row>
     <row r="118" spans="1:19">
-      <c r="A118" s="111"/>
-      <c r="B118" s="111"/>
+      <c r="A118" s="120"/>
+      <c r="B118" s="120"/>
       <c r="C118" s="82" t="s">
         <v>31</v>
       </c>
@@ -12511,8 +12533,8 @@
       </c>
     </row>
     <row r="119" spans="1:19">
-      <c r="A119" s="112"/>
-      <c r="B119" s="112"/>
+      <c r="A119" s="121"/>
+      <c r="B119" s="121"/>
       <c r="C119" s="82" t="s">
         <v>11</v>
       </c>
@@ -12576,10 +12598,10 @@
       </c>
     </row>
     <row r="120" spans="1:19">
-      <c r="A120" s="110" t="s">
+      <c r="A120" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="B120" s="110" t="s">
+      <c r="B120" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C120" s="81"/>
@@ -12631,8 +12653,8 @@
       </c>
     </row>
     <row r="121" spans="1:19">
-      <c r="A121" s="111"/>
-      <c r="B121" s="111"/>
+      <c r="A121" s="120"/>
+      <c r="B121" s="120"/>
       <c r="C121" s="82" t="s">
         <v>30</v>
       </c>
@@ -12696,8 +12718,8 @@
       </c>
     </row>
     <row r="122" spans="1:19">
-      <c r="A122" s="111"/>
-      <c r="B122" s="111"/>
+      <c r="A122" s="120"/>
+      <c r="B122" s="120"/>
       <c r="C122" s="82" t="s">
         <v>31</v>
       </c>
@@ -12761,8 +12783,8 @@
       </c>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="111"/>
-      <c r="B123" s="112"/>
+      <c r="A123" s="120"/>
+      <c r="B123" s="121"/>
       <c r="C123" s="82" t="s">
         <v>11</v>
       </c>
@@ -12826,8 +12848,8 @@
       </c>
     </row>
     <row r="124" spans="1:19">
-      <c r="A124" s="111"/>
-      <c r="B124" s="110" t="s">
+      <c r="A124" s="120"/>
+      <c r="B124" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C124" s="81"/>
@@ -12879,8 +12901,8 @@
       </c>
     </row>
     <row r="125" spans="1:19">
-      <c r="A125" s="111"/>
-      <c r="B125" s="111"/>
+      <c r="A125" s="120"/>
+      <c r="B125" s="120"/>
       <c r="C125" s="82" t="s">
         <v>30</v>
       </c>
@@ -12944,8 +12966,8 @@
       </c>
     </row>
     <row r="126" spans="1:19">
-      <c r="A126" s="111"/>
-      <c r="B126" s="111"/>
+      <c r="A126" s="120"/>
+      <c r="B126" s="120"/>
       <c r="C126" s="82" t="s">
         <v>31</v>
       </c>
@@ -13009,8 +13031,8 @@
       </c>
     </row>
     <row r="127" spans="1:19">
-      <c r="A127" s="112"/>
-      <c r="B127" s="112"/>
+      <c r="A127" s="121"/>
+      <c r="B127" s="121"/>
       <c r="C127" s="83" t="s">
         <v>11</v>
       </c>
@@ -13074,10 +13096,10 @@
       </c>
     </row>
     <row r="128" spans="1:19">
-      <c r="A128" s="110" t="s">
+      <c r="A128" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="B128" s="110" t="s">
+      <c r="B128" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C128" s="81"/>
@@ -13129,8 +13151,8 @@
       </c>
     </row>
     <row r="129" spans="1:19">
-      <c r="A129" s="111"/>
-      <c r="B129" s="111"/>
+      <c r="A129" s="120"/>
+      <c r="B129" s="120"/>
       <c r="C129" s="82" t="s">
         <v>30</v>
       </c>
@@ -13194,8 +13216,8 @@
       </c>
     </row>
     <row r="130" spans="1:19">
-      <c r="A130" s="111"/>
-      <c r="B130" s="111"/>
+      <c r="A130" s="120"/>
+      <c r="B130" s="120"/>
       <c r="C130" s="82" t="s">
         <v>31</v>
       </c>
@@ -13259,8 +13281,8 @@
       </c>
     </row>
     <row r="131" spans="1:19">
-      <c r="A131" s="111"/>
-      <c r="B131" s="112"/>
+      <c r="A131" s="120"/>
+      <c r="B131" s="121"/>
       <c r="C131" s="82" t="s">
         <v>11</v>
       </c>
@@ -13324,8 +13346,8 @@
       </c>
     </row>
     <row r="132" spans="1:19">
-      <c r="A132" s="111"/>
-      <c r="B132" s="110" t="s">
+      <c r="A132" s="120"/>
+      <c r="B132" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C132" s="81"/>
@@ -13377,8 +13399,8 @@
       </c>
     </row>
     <row r="133" spans="1:19">
-      <c r="A133" s="111"/>
-      <c r="B133" s="111"/>
+      <c r="A133" s="120"/>
+      <c r="B133" s="120"/>
       <c r="C133" s="82" t="s">
         <v>30</v>
       </c>
@@ -13442,8 +13464,8 @@
       </c>
     </row>
     <row r="134" spans="1:19">
-      <c r="A134" s="111"/>
-      <c r="B134" s="111"/>
+      <c r="A134" s="120"/>
+      <c r="B134" s="120"/>
       <c r="C134" s="82" t="s">
         <v>31</v>
       </c>
@@ -13507,8 +13529,8 @@
       </c>
     </row>
     <row r="135" spans="1:19">
-      <c r="A135" s="112"/>
-      <c r="B135" s="112"/>
+      <c r="A135" s="121"/>
+      <c r="B135" s="121"/>
       <c r="C135" s="82" t="s">
         <v>11</v>
       </c>
@@ -13572,10 +13594,10 @@
       </c>
     </row>
     <row r="136" spans="1:19">
-      <c r="A136" s="110" t="s">
+      <c r="A136" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="B136" s="110" t="s">
+      <c r="B136" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C136" s="81"/>
@@ -13627,8 +13649,8 @@
       </c>
     </row>
     <row r="137" spans="1:19">
-      <c r="A137" s="111"/>
-      <c r="B137" s="111"/>
+      <c r="A137" s="120"/>
+      <c r="B137" s="120"/>
       <c r="C137" s="82" t="s">
         <v>30</v>
       </c>
@@ -13692,8 +13714,8 @@
       </c>
     </row>
     <row r="138" spans="1:19">
-      <c r="A138" s="111"/>
-      <c r="B138" s="111"/>
+      <c r="A138" s="120"/>
+      <c r="B138" s="120"/>
       <c r="C138" s="82" t="s">
         <v>31</v>
       </c>
@@ -13757,8 +13779,8 @@
       </c>
     </row>
     <row r="139" spans="1:19">
-      <c r="A139" s="111"/>
-      <c r="B139" s="112"/>
+      <c r="A139" s="120"/>
+      <c r="B139" s="121"/>
       <c r="C139" s="82" t="s">
         <v>11</v>
       </c>
@@ -13822,8 +13844,8 @@
       </c>
     </row>
     <row r="140" spans="1:19">
-      <c r="A140" s="111"/>
-      <c r="B140" s="110" t="s">
+      <c r="A140" s="120"/>
+      <c r="B140" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C140" s="81"/>
@@ -13875,8 +13897,8 @@
       </c>
     </row>
     <row r="141" spans="1:19">
-      <c r="A141" s="111"/>
-      <c r="B141" s="111"/>
+      <c r="A141" s="120"/>
+      <c r="B141" s="120"/>
       <c r="C141" s="82" t="s">
         <v>30</v>
       </c>
@@ -13940,8 +13962,8 @@
       </c>
     </row>
     <row r="142" spans="1:19">
-      <c r="A142" s="111"/>
-      <c r="B142" s="111"/>
+      <c r="A142" s="120"/>
+      <c r="B142" s="120"/>
       <c r="C142" s="82" t="s">
         <v>31</v>
       </c>
@@ -14005,8 +14027,8 @@
       </c>
     </row>
     <row r="143" spans="1:19">
-      <c r="A143" s="112"/>
-      <c r="B143" s="112"/>
+      <c r="A143" s="121"/>
+      <c r="B143" s="121"/>
       <c r="C143" s="83" t="s">
         <v>11</v>
       </c>
@@ -14070,10 +14092,10 @@
       </c>
     </row>
     <row r="144" spans="1:19">
-      <c r="A144" s="110" t="s">
+      <c r="A144" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B144" s="110" t="s">
+      <c r="B144" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C144" s="81"/>
@@ -14125,8 +14147,8 @@
       </c>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="111"/>
-      <c r="B145" s="111"/>
+      <c r="A145" s="120"/>
+      <c r="B145" s="120"/>
       <c r="C145" s="82" t="s">
         <v>30</v>
       </c>
@@ -14190,8 +14212,8 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="111"/>
-      <c r="B146" s="111"/>
+      <c r="A146" s="120"/>
+      <c r="B146" s="120"/>
       <c r="C146" s="82" t="s">
         <v>31</v>
       </c>
@@ -14255,8 +14277,8 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="111"/>
-      <c r="B147" s="112"/>
+      <c r="A147" s="120"/>
+      <c r="B147" s="121"/>
       <c r="C147" s="82" t="s">
         <v>11</v>
       </c>
@@ -14320,8 +14342,8 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="111"/>
-      <c r="B148" s="110" t="s">
+      <c r="A148" s="120"/>
+      <c r="B148" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C148" s="81"/>
@@ -14373,8 +14395,8 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="111"/>
-      <c r="B149" s="111"/>
+      <c r="A149" s="120"/>
+      <c r="B149" s="120"/>
       <c r="C149" s="82" t="s">
         <v>30</v>
       </c>
@@ -14438,8 +14460,8 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="111"/>
-      <c r="B150" s="111"/>
+      <c r="A150" s="120"/>
+      <c r="B150" s="120"/>
       <c r="C150" s="82" t="s">
         <v>31</v>
       </c>
@@ -14503,8 +14525,8 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="112"/>
-      <c r="B151" s="112"/>
+      <c r="A151" s="121"/>
+      <c r="B151" s="121"/>
       <c r="C151" s="82" t="s">
         <v>11</v>
       </c>
@@ -14568,10 +14590,10 @@
       </c>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="110" t="s">
+      <c r="A152" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="B152" s="110" t="s">
+      <c r="B152" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C152" s="81"/>
@@ -14623,8 +14645,8 @@
       </c>
     </row>
     <row r="153" spans="1:19">
-      <c r="A153" s="111"/>
-      <c r="B153" s="111"/>
+      <c r="A153" s="120"/>
+      <c r="B153" s="120"/>
       <c r="C153" s="82" t="s">
         <v>30</v>
       </c>
@@ -14688,8 +14710,8 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="111"/>
-      <c r="B154" s="111"/>
+      <c r="A154" s="120"/>
+      <c r="B154" s="120"/>
       <c r="C154" s="82" t="s">
         <v>31</v>
       </c>
@@ -14753,8 +14775,8 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="111"/>
-      <c r="B155" s="112"/>
+      <c r="A155" s="120"/>
+      <c r="B155" s="121"/>
       <c r="C155" s="82" t="s">
         <v>11</v>
       </c>
@@ -14818,8 +14840,8 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="111"/>
-      <c r="B156" s="110" t="s">
+      <c r="A156" s="120"/>
+      <c r="B156" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C156" s="81"/>
@@ -14871,8 +14893,8 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="111"/>
-      <c r="B157" s="111"/>
+      <c r="A157" s="120"/>
+      <c r="B157" s="120"/>
       <c r="C157" s="82" t="s">
         <v>30</v>
       </c>
@@ -14936,8 +14958,8 @@
       </c>
     </row>
     <row r="158" spans="1:19">
-      <c r="A158" s="111"/>
-      <c r="B158" s="111"/>
+      <c r="A158" s="120"/>
+      <c r="B158" s="120"/>
       <c r="C158" s="82" t="s">
         <v>31</v>
       </c>
@@ -15001,8 +15023,8 @@
       </c>
     </row>
     <row r="159" spans="1:19">
-      <c r="A159" s="112"/>
-      <c r="B159" s="112"/>
+      <c r="A159" s="121"/>
+      <c r="B159" s="121"/>
       <c r="C159" s="83" t="s">
         <v>11</v>
       </c>
@@ -15066,10 +15088,10 @@
       </c>
     </row>
     <row r="160" spans="1:19">
-      <c r="A160" s="110" t="s">
+      <c r="A160" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="B160" s="110" t="s">
+      <c r="B160" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C160" s="81"/>
@@ -15121,8 +15143,8 @@
       </c>
     </row>
     <row r="161" spans="1:19">
-      <c r="A161" s="111"/>
-      <c r="B161" s="111"/>
+      <c r="A161" s="120"/>
+      <c r="B161" s="120"/>
       <c r="C161" s="82" t="s">
         <v>30</v>
       </c>
@@ -15186,8 +15208,8 @@
       </c>
     </row>
     <row r="162" spans="1:19">
-      <c r="A162" s="111"/>
-      <c r="B162" s="111"/>
+      <c r="A162" s="120"/>
+      <c r="B162" s="120"/>
       <c r="C162" s="82" t="s">
         <v>31</v>
       </c>
@@ -15251,8 +15273,8 @@
       </c>
     </row>
     <row r="163" spans="1:19">
-      <c r="A163" s="111"/>
-      <c r="B163" s="112"/>
+      <c r="A163" s="120"/>
+      <c r="B163" s="121"/>
       <c r="C163" s="82" t="s">
         <v>11</v>
       </c>
@@ -15316,8 +15338,8 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="111"/>
-      <c r="B164" s="110" t="s">
+      <c r="A164" s="120"/>
+      <c r="B164" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C164" s="81"/>
@@ -15369,8 +15391,8 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="111"/>
-      <c r="B165" s="111"/>
+      <c r="A165" s="120"/>
+      <c r="B165" s="120"/>
       <c r="C165" s="82" t="s">
         <v>30</v>
       </c>
@@ -15434,8 +15456,8 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="111"/>
-      <c r="B166" s="111"/>
+      <c r="A166" s="120"/>
+      <c r="B166" s="120"/>
       <c r="C166" s="82" t="s">
         <v>31</v>
       </c>
@@ -15499,8 +15521,8 @@
       </c>
     </row>
     <row r="167" spans="1:19">
-      <c r="A167" s="112"/>
-      <c r="B167" s="112"/>
+      <c r="A167" s="121"/>
+      <c r="B167" s="121"/>
       <c r="C167" s="82" t="s">
         <v>11</v>
       </c>
@@ -15564,10 +15586,10 @@
       </c>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="110" t="s">
+      <c r="A168" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B168" s="110" t="s">
+      <c r="B168" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C168" s="81"/>
@@ -15619,8 +15641,8 @@
       </c>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="111"/>
-      <c r="B169" s="111"/>
+      <c r="A169" s="120"/>
+      <c r="B169" s="120"/>
       <c r="C169" s="82" t="s">
         <v>30</v>
       </c>
@@ -15684,8 +15706,8 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="111"/>
-      <c r="B170" s="111"/>
+      <c r="A170" s="120"/>
+      <c r="B170" s="120"/>
       <c r="C170" s="82" t="s">
         <v>31</v>
       </c>
@@ -15749,8 +15771,8 @@
       </c>
     </row>
     <row r="171" spans="1:19">
-      <c r="A171" s="111"/>
-      <c r="B171" s="112"/>
+      <c r="A171" s="120"/>
+      <c r="B171" s="121"/>
       <c r="C171" s="82" t="s">
         <v>11</v>
       </c>
@@ -15814,8 +15836,8 @@
       </c>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="111"/>
-      <c r="B172" s="110" t="s">
+      <c r="A172" s="120"/>
+      <c r="B172" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C172" s="81"/>
@@ -15867,8 +15889,8 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="111"/>
-      <c r="B173" s="111"/>
+      <c r="A173" s="120"/>
+      <c r="B173" s="120"/>
       <c r="C173" s="82" t="s">
         <v>30</v>
       </c>
@@ -15932,8 +15954,8 @@
       </c>
     </row>
     <row r="174" spans="1:19">
-      <c r="A174" s="111"/>
-      <c r="B174" s="111"/>
+      <c r="A174" s="120"/>
+      <c r="B174" s="120"/>
       <c r="C174" s="82" t="s">
         <v>31</v>
       </c>
@@ -15997,8 +16019,8 @@
       </c>
     </row>
     <row r="175" spans="1:19">
-      <c r="A175" s="112"/>
-      <c r="B175" s="112"/>
+      <c r="A175" s="121"/>
+      <c r="B175" s="121"/>
       <c r="C175" s="83" t="s">
         <v>11</v>
       </c>
@@ -16062,10 +16084,10 @@
       </c>
     </row>
     <row r="176" spans="1:19">
-      <c r="A176" s="110" t="s">
+      <c r="A176" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="B176" s="110" t="s">
+      <c r="B176" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C176" s="81"/>
@@ -16117,8 +16139,8 @@
       </c>
     </row>
     <row r="177" spans="1:19">
-      <c r="A177" s="111"/>
-      <c r="B177" s="111"/>
+      <c r="A177" s="120"/>
+      <c r="B177" s="120"/>
       <c r="C177" s="82" t="s">
         <v>30</v>
       </c>
@@ -16182,8 +16204,8 @@
       </c>
     </row>
     <row r="178" spans="1:19">
-      <c r="A178" s="111"/>
-      <c r="B178" s="111"/>
+      <c r="A178" s="120"/>
+      <c r="B178" s="120"/>
       <c r="C178" s="82" t="s">
         <v>31</v>
       </c>
@@ -16247,8 +16269,8 @@
       </c>
     </row>
     <row r="179" spans="1:19">
-      <c r="A179" s="111"/>
-      <c r="B179" s="112"/>
+      <c r="A179" s="120"/>
+      <c r="B179" s="121"/>
       <c r="C179" s="82" t="s">
         <v>11</v>
       </c>
@@ -16312,8 +16334,8 @@
       </c>
     </row>
     <row r="180" spans="1:19">
-      <c r="A180" s="111"/>
-      <c r="B180" s="110" t="s">
+      <c r="A180" s="120"/>
+      <c r="B180" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C180" s="81"/>
@@ -16365,8 +16387,8 @@
       </c>
     </row>
     <row r="181" spans="1:19">
-      <c r="A181" s="111"/>
-      <c r="B181" s="111"/>
+      <c r="A181" s="120"/>
+      <c r="B181" s="120"/>
       <c r="C181" s="82" t="s">
         <v>30</v>
       </c>
@@ -16430,8 +16452,8 @@
       </c>
     </row>
     <row r="182" spans="1:19">
-      <c r="A182" s="111"/>
-      <c r="B182" s="111"/>
+      <c r="A182" s="120"/>
+      <c r="B182" s="120"/>
       <c r="C182" s="82" t="s">
         <v>31</v>
       </c>
@@ -16495,8 +16517,8 @@
       </c>
     </row>
     <row r="183" spans="1:19">
-      <c r="A183" s="112"/>
-      <c r="B183" s="112"/>
+      <c r="A183" s="121"/>
+      <c r="B183" s="121"/>
       <c r="C183" s="82" t="s">
         <v>11</v>
       </c>
@@ -16560,10 +16582,10 @@
       </c>
     </row>
     <row r="184" spans="1:19">
-      <c r="A184" s="110" t="s">
+      <c r="A184" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="B184" s="110" t="s">
+      <c r="B184" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C184" s="81"/>
@@ -16615,8 +16637,8 @@
       </c>
     </row>
     <row r="185" spans="1:19">
-      <c r="A185" s="111"/>
-      <c r="B185" s="111"/>
+      <c r="A185" s="120"/>
+      <c r="B185" s="120"/>
       <c r="C185" s="82" t="s">
         <v>30</v>
       </c>
@@ -16680,8 +16702,8 @@
       </c>
     </row>
     <row r="186" spans="1:19">
-      <c r="A186" s="111"/>
-      <c r="B186" s="111"/>
+      <c r="A186" s="120"/>
+      <c r="B186" s="120"/>
       <c r="C186" s="82" t="s">
         <v>31</v>
       </c>
@@ -16745,8 +16767,8 @@
       </c>
     </row>
     <row r="187" spans="1:19">
-      <c r="A187" s="111"/>
-      <c r="B187" s="112"/>
+      <c r="A187" s="120"/>
+      <c r="B187" s="121"/>
       <c r="C187" s="82" t="s">
         <v>11</v>
       </c>
@@ -16810,8 +16832,8 @@
       </c>
     </row>
     <row r="188" spans="1:19">
-      <c r="A188" s="111"/>
-      <c r="B188" s="110" t="s">
+      <c r="A188" s="120"/>
+      <c r="B188" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C188" s="81"/>
@@ -16863,8 +16885,8 @@
       </c>
     </row>
     <row r="189" spans="1:19">
-      <c r="A189" s="111"/>
-      <c r="B189" s="111"/>
+      <c r="A189" s="120"/>
+      <c r="B189" s="120"/>
       <c r="C189" s="82" t="s">
         <v>30</v>
       </c>
@@ -16928,8 +16950,8 @@
       </c>
     </row>
     <row r="190" spans="1:19">
-      <c r="A190" s="111"/>
-      <c r="B190" s="111"/>
+      <c r="A190" s="120"/>
+      <c r="B190" s="120"/>
       <c r="C190" s="82" t="s">
         <v>31</v>
       </c>
@@ -16993,8 +17015,8 @@
       </c>
     </row>
     <row r="191" spans="1:19">
-      <c r="A191" s="112"/>
-      <c r="B191" s="112"/>
+      <c r="A191" s="121"/>
+      <c r="B191" s="121"/>
       <c r="C191" s="83" t="s">
         <v>11</v>
       </c>
@@ -17058,10 +17080,10 @@
       </c>
     </row>
     <row r="192" spans="1:19">
-      <c r="A192" s="110" t="s">
+      <c r="A192" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="B192" s="110" t="s">
+      <c r="B192" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C192" s="81"/>
@@ -17113,8 +17135,8 @@
       </c>
     </row>
     <row r="193" spans="1:19">
-      <c r="A193" s="111"/>
-      <c r="B193" s="111"/>
+      <c r="A193" s="120"/>
+      <c r="B193" s="120"/>
       <c r="C193" s="82" t="s">
         <v>30</v>
       </c>
@@ -17178,8 +17200,8 @@
       </c>
     </row>
     <row r="194" spans="1:19">
-      <c r="A194" s="111"/>
-      <c r="B194" s="111"/>
+      <c r="A194" s="120"/>
+      <c r="B194" s="120"/>
       <c r="C194" s="82" t="s">
         <v>31</v>
       </c>
@@ -17243,8 +17265,8 @@
       </c>
     </row>
     <row r="195" spans="1:19">
-      <c r="A195" s="111"/>
-      <c r="B195" s="112"/>
+      <c r="A195" s="120"/>
+      <c r="B195" s="121"/>
       <c r="C195" s="82" t="s">
         <v>11</v>
       </c>
@@ -17308,8 +17330,8 @@
       </c>
     </row>
     <row r="196" spans="1:19">
-      <c r="A196" s="111"/>
-      <c r="B196" s="110" t="s">
+      <c r="A196" s="120"/>
+      <c r="B196" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C196" s="81"/>
@@ -17361,8 +17383,8 @@
       </c>
     </row>
     <row r="197" spans="1:19">
-      <c r="A197" s="111"/>
-      <c r="B197" s="111"/>
+      <c r="A197" s="120"/>
+      <c r="B197" s="120"/>
       <c r="C197" s="82" t="s">
         <v>30</v>
       </c>
@@ -17426,8 +17448,8 @@
       </c>
     </row>
     <row r="198" spans="1:19">
-      <c r="A198" s="111"/>
-      <c r="B198" s="111"/>
+      <c r="A198" s="120"/>
+      <c r="B198" s="120"/>
       <c r="C198" s="82" t="s">
         <v>31</v>
       </c>
@@ -17491,8 +17513,8 @@
       </c>
     </row>
     <row r="199" spans="1:19">
-      <c r="A199" s="112"/>
-      <c r="B199" s="112"/>
+      <c r="A199" s="121"/>
+      <c r="B199" s="121"/>
       <c r="C199" s="82" t="s">
         <v>11</v>
       </c>
@@ -17556,10 +17578,10 @@
       </c>
     </row>
     <row r="200" spans="1:19">
-      <c r="A200" s="110" t="s">
+      <c r="A200" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="B200" s="110" t="s">
+      <c r="B200" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C200" s="81"/>
@@ -17611,8 +17633,8 @@
       </c>
     </row>
     <row r="201" spans="1:19">
-      <c r="A201" s="111"/>
-      <c r="B201" s="111"/>
+      <c r="A201" s="120"/>
+      <c r="B201" s="120"/>
       <c r="C201" s="82" t="s">
         <v>30</v>
       </c>
@@ -17676,8 +17698,8 @@
       </c>
     </row>
     <row r="202" spans="1:19">
-      <c r="A202" s="111"/>
-      <c r="B202" s="111"/>
+      <c r="A202" s="120"/>
+      <c r="B202" s="120"/>
       <c r="C202" s="82" t="s">
         <v>31</v>
       </c>
@@ -17741,8 +17763,8 @@
       </c>
     </row>
     <row r="203" spans="1:19">
-      <c r="A203" s="111"/>
-      <c r="B203" s="112"/>
+      <c r="A203" s="120"/>
+      <c r="B203" s="121"/>
       <c r="C203" s="82" t="s">
         <v>11</v>
       </c>
@@ -17806,8 +17828,8 @@
       </c>
     </row>
     <row r="204" spans="1:19">
-      <c r="A204" s="111"/>
-      <c r="B204" s="110" t="s">
+      <c r="A204" s="120"/>
+      <c r="B204" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C204" s="81"/>
@@ -17859,8 +17881,8 @@
       </c>
     </row>
     <row r="205" spans="1:19">
-      <c r="A205" s="111"/>
-      <c r="B205" s="111"/>
+      <c r="A205" s="120"/>
+      <c r="B205" s="120"/>
       <c r="C205" s="82" t="s">
         <v>30</v>
       </c>
@@ -17924,8 +17946,8 @@
       </c>
     </row>
     <row r="206" spans="1:19">
-      <c r="A206" s="111"/>
-      <c r="B206" s="111"/>
+      <c r="A206" s="120"/>
+      <c r="B206" s="120"/>
       <c r="C206" s="82" t="s">
         <v>31</v>
       </c>
@@ -17989,8 +18011,8 @@
       </c>
     </row>
     <row r="207" spans="1:19">
-      <c r="A207" s="112"/>
-      <c r="B207" s="112"/>
+      <c r="A207" s="121"/>
+      <c r="B207" s="121"/>
       <c r="C207" s="83" t="s">
         <v>11</v>
       </c>
@@ -18054,10 +18076,10 @@
       </c>
     </row>
     <row r="208" spans="1:19">
-      <c r="A208" s="110" t="s">
+      <c r="A208" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B208" s="110" t="s">
+      <c r="B208" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C208" s="81"/>
@@ -18109,8 +18131,8 @@
       </c>
     </row>
     <row r="209" spans="1:19">
-      <c r="A209" s="111"/>
-      <c r="B209" s="111"/>
+      <c r="A209" s="120"/>
+      <c r="B209" s="120"/>
       <c r="C209" s="82" t="s">
         <v>30</v>
       </c>
@@ -18174,8 +18196,8 @@
       </c>
     </row>
     <row r="210" spans="1:19">
-      <c r="A210" s="111"/>
-      <c r="B210" s="111"/>
+      <c r="A210" s="120"/>
+      <c r="B210" s="120"/>
       <c r="C210" s="82" t="s">
         <v>31</v>
       </c>
@@ -18239,8 +18261,8 @@
       </c>
     </row>
     <row r="211" spans="1:19">
-      <c r="A211" s="111"/>
-      <c r="B211" s="112"/>
+      <c r="A211" s="120"/>
+      <c r="B211" s="121"/>
       <c r="C211" s="82" t="s">
         <v>11</v>
       </c>
@@ -18304,8 +18326,8 @@
       </c>
     </row>
     <row r="212" spans="1:19">
-      <c r="A212" s="111"/>
-      <c r="B212" s="110" t="s">
+      <c r="A212" s="120"/>
+      <c r="B212" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C212" s="81"/>
@@ -18357,8 +18379,8 @@
       </c>
     </row>
     <row r="213" spans="1:19">
-      <c r="A213" s="111"/>
-      <c r="B213" s="111"/>
+      <c r="A213" s="120"/>
+      <c r="B213" s="120"/>
       <c r="C213" s="82" t="s">
         <v>30</v>
       </c>
@@ -18422,8 +18444,8 @@
       </c>
     </row>
     <row r="214" spans="1:19">
-      <c r="A214" s="111"/>
-      <c r="B214" s="111"/>
+      <c r="A214" s="120"/>
+      <c r="B214" s="120"/>
       <c r="C214" s="82" t="s">
         <v>31</v>
       </c>
@@ -18487,8 +18509,8 @@
       </c>
     </row>
     <row r="215" spans="1:19">
-      <c r="A215" s="112"/>
-      <c r="B215" s="112"/>
+      <c r="A215" s="121"/>
+      <c r="B215" s="121"/>
       <c r="C215" s="82" t="s">
         <v>11</v>
       </c>
@@ -18552,10 +18574,10 @@
       </c>
     </row>
     <row r="216" spans="1:19">
-      <c r="A216" s="110" t="s">
+      <c r="A216" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="B216" s="110" t="s">
+      <c r="B216" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C216" s="81"/>
@@ -18607,8 +18629,8 @@
       </c>
     </row>
     <row r="217" spans="1:19">
-      <c r="A217" s="111"/>
-      <c r="B217" s="111"/>
+      <c r="A217" s="120"/>
+      <c r="B217" s="120"/>
       <c r="C217" s="82" t="s">
         <v>30</v>
       </c>
@@ -18672,8 +18694,8 @@
       </c>
     </row>
     <row r="218" spans="1:19">
-      <c r="A218" s="111"/>
-      <c r="B218" s="111"/>
+      <c r="A218" s="120"/>
+      <c r="B218" s="120"/>
       <c r="C218" s="82" t="s">
         <v>31</v>
       </c>
@@ -18737,8 +18759,8 @@
       </c>
     </row>
     <row r="219" spans="1:19">
-      <c r="A219" s="111"/>
-      <c r="B219" s="112"/>
+      <c r="A219" s="120"/>
+      <c r="B219" s="121"/>
       <c r="C219" s="82" t="s">
         <v>11</v>
       </c>
@@ -18802,8 +18824,8 @@
       </c>
     </row>
     <row r="220" spans="1:19">
-      <c r="A220" s="111"/>
-      <c r="B220" s="110" t="s">
+      <c r="A220" s="120"/>
+      <c r="B220" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C220" s="81"/>
@@ -18855,8 +18877,8 @@
       </c>
     </row>
     <row r="221" spans="1:19">
-      <c r="A221" s="111"/>
-      <c r="B221" s="111"/>
+      <c r="A221" s="120"/>
+      <c r="B221" s="120"/>
       <c r="C221" s="82" t="s">
         <v>30</v>
       </c>
@@ -18920,8 +18942,8 @@
       </c>
     </row>
     <row r="222" spans="1:19">
-      <c r="A222" s="111"/>
-      <c r="B222" s="111"/>
+      <c r="A222" s="120"/>
+      <c r="B222" s="120"/>
       <c r="C222" s="82" t="s">
         <v>31</v>
       </c>
@@ -18985,8 +19007,8 @@
       </c>
     </row>
     <row r="223" spans="1:19">
-      <c r="A223" s="112"/>
-      <c r="B223" s="112"/>
+      <c r="A223" s="121"/>
+      <c r="B223" s="121"/>
       <c r="C223" s="83" t="s">
         <v>11</v>
       </c>
@@ -19050,10 +19072,10 @@
       </c>
     </row>
     <row r="224" spans="1:19">
-      <c r="A224" s="110" t="s">
+      <c r="A224" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="B224" s="110" t="s">
+      <c r="B224" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C224" s="81"/>
@@ -19105,8 +19127,8 @@
       </c>
     </row>
     <row r="225" spans="1:19">
-      <c r="A225" s="111"/>
-      <c r="B225" s="111"/>
+      <c r="A225" s="120"/>
+      <c r="B225" s="120"/>
       <c r="C225" s="82" t="s">
         <v>30</v>
       </c>
@@ -19170,8 +19192,8 @@
       </c>
     </row>
     <row r="226" spans="1:19">
-      <c r="A226" s="111"/>
-      <c r="B226" s="111"/>
+      <c r="A226" s="120"/>
+      <c r="B226" s="120"/>
       <c r="C226" s="82" t="s">
         <v>31</v>
       </c>
@@ -19235,8 +19257,8 @@
       </c>
     </row>
     <row r="227" spans="1:19">
-      <c r="A227" s="111"/>
-      <c r="B227" s="112"/>
+      <c r="A227" s="120"/>
+      <c r="B227" s="121"/>
       <c r="C227" s="82" t="s">
         <v>11</v>
       </c>
@@ -19300,8 +19322,8 @@
       </c>
     </row>
     <row r="228" spans="1:19">
-      <c r="A228" s="111"/>
-      <c r="B228" s="110" t="s">
+      <c r="A228" s="120"/>
+      <c r="B228" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C228" s="81"/>
@@ -19353,8 +19375,8 @@
       </c>
     </row>
     <row r="229" spans="1:19">
-      <c r="A229" s="111"/>
-      <c r="B229" s="111"/>
+      <c r="A229" s="120"/>
+      <c r="B229" s="120"/>
       <c r="C229" s="82" t="s">
         <v>30</v>
       </c>
@@ -19418,8 +19440,8 @@
       </c>
     </row>
     <row r="230" spans="1:19">
-      <c r="A230" s="111"/>
-      <c r="B230" s="111"/>
+      <c r="A230" s="120"/>
+      <c r="B230" s="120"/>
       <c r="C230" s="82" t="s">
         <v>31</v>
       </c>
@@ -19483,8 +19505,8 @@
       </c>
     </row>
     <row r="231" spans="1:19">
-      <c r="A231" s="112"/>
-      <c r="B231" s="112"/>
+      <c r="A231" s="121"/>
+      <c r="B231" s="121"/>
       <c r="C231" s="82" t="s">
         <v>11</v>
       </c>
@@ -19548,10 +19570,10 @@
       </c>
     </row>
     <row r="232" spans="1:19">
-      <c r="A232" s="110" t="s">
+      <c r="A232" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="B232" s="110" t="s">
+      <c r="B232" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C232" s="81"/>
@@ -19603,8 +19625,8 @@
       </c>
     </row>
     <row r="233" spans="1:19">
-      <c r="A233" s="111"/>
-      <c r="B233" s="111"/>
+      <c r="A233" s="120"/>
+      <c r="B233" s="120"/>
       <c r="C233" s="82" t="s">
         <v>30</v>
       </c>
@@ -19668,8 +19690,8 @@
       </c>
     </row>
     <row r="234" spans="1:19">
-      <c r="A234" s="111"/>
-      <c r="B234" s="111"/>
+      <c r="A234" s="120"/>
+      <c r="B234" s="120"/>
       <c r="C234" s="82" t="s">
         <v>31</v>
       </c>
@@ -19733,8 +19755,8 @@
       </c>
     </row>
     <row r="235" spans="1:19">
-      <c r="A235" s="111"/>
-      <c r="B235" s="112"/>
+      <c r="A235" s="120"/>
+      <c r="B235" s="121"/>
       <c r="C235" s="82" t="s">
         <v>11</v>
       </c>
@@ -19798,8 +19820,8 @@
       </c>
     </row>
     <row r="236" spans="1:19">
-      <c r="A236" s="111"/>
-      <c r="B236" s="110" t="s">
+      <c r="A236" s="120"/>
+      <c r="B236" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C236" s="81"/>
@@ -19851,8 +19873,8 @@
       </c>
     </row>
     <row r="237" spans="1:19">
-      <c r="A237" s="111"/>
-      <c r="B237" s="111"/>
+      <c r="A237" s="120"/>
+      <c r="B237" s="120"/>
       <c r="C237" s="82" t="s">
         <v>30</v>
       </c>
@@ -19916,8 +19938,8 @@
       </c>
     </row>
     <row r="238" spans="1:19">
-      <c r="A238" s="111"/>
-      <c r="B238" s="111"/>
+      <c r="A238" s="120"/>
+      <c r="B238" s="120"/>
       <c r="C238" s="82" t="s">
         <v>31</v>
       </c>
@@ -19981,8 +20003,8 @@
       </c>
     </row>
     <row r="239" spans="1:19">
-      <c r="A239" s="112"/>
-      <c r="B239" s="112"/>
+      <c r="A239" s="121"/>
+      <c r="B239" s="121"/>
       <c r="C239" s="83" t="s">
         <v>11</v>
       </c>
@@ -20046,10 +20068,10 @@
       </c>
     </row>
     <row r="240" spans="1:19">
-      <c r="A240" s="110" t="s">
+      <c r="A240" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B240" s="110" t="s">
+      <c r="B240" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C240" s="81"/>
@@ -20101,8 +20123,8 @@
       </c>
     </row>
     <row r="241" spans="1:19">
-      <c r="A241" s="111"/>
-      <c r="B241" s="111"/>
+      <c r="A241" s="120"/>
+      <c r="B241" s="120"/>
       <c r="C241" s="82" t="s">
         <v>30</v>
       </c>
@@ -20166,8 +20188,8 @@
       </c>
     </row>
     <row r="242" spans="1:19">
-      <c r="A242" s="111"/>
-      <c r="B242" s="111"/>
+      <c r="A242" s="120"/>
+      <c r="B242" s="120"/>
       <c r="C242" s="82" t="s">
         <v>31</v>
       </c>
@@ -20231,8 +20253,8 @@
       </c>
     </row>
     <row r="243" spans="1:19">
-      <c r="A243" s="111"/>
-      <c r="B243" s="112"/>
+      <c r="A243" s="120"/>
+      <c r="B243" s="121"/>
       <c r="C243" s="82" t="s">
         <v>11</v>
       </c>
@@ -20296,8 +20318,8 @@
       </c>
     </row>
     <row r="244" spans="1:19">
-      <c r="A244" s="111"/>
-      <c r="B244" s="110" t="s">
+      <c r="A244" s="120"/>
+      <c r="B244" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C244" s="81"/>
@@ -20349,8 +20371,8 @@
       </c>
     </row>
     <row r="245" spans="1:19">
-      <c r="A245" s="111"/>
-      <c r="B245" s="111"/>
+      <c r="A245" s="120"/>
+      <c r="B245" s="120"/>
       <c r="C245" s="82" t="s">
         <v>30</v>
       </c>
@@ -20414,8 +20436,8 @@
       </c>
     </row>
     <row r="246" spans="1:19">
-      <c r="A246" s="111"/>
-      <c r="B246" s="111"/>
+      <c r="A246" s="120"/>
+      <c r="B246" s="120"/>
       <c r="C246" s="82" t="s">
         <v>31</v>
       </c>
@@ -20479,8 +20501,8 @@
       </c>
     </row>
     <row r="247" spans="1:19">
-      <c r="A247" s="112"/>
-      <c r="B247" s="112"/>
+      <c r="A247" s="121"/>
+      <c r="B247" s="121"/>
       <c r="C247" s="82" t="s">
         <v>11</v>
       </c>
@@ -20544,10 +20566,10 @@
       </c>
     </row>
     <row r="248" spans="1:19">
-      <c r="A248" s="110" t="s">
+      <c r="A248" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="B248" s="110" t="s">
+      <c r="B248" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C248" s="81"/>
@@ -20599,8 +20621,8 @@
       </c>
     </row>
     <row r="249" spans="1:19">
-      <c r="A249" s="111"/>
-      <c r="B249" s="111"/>
+      <c r="A249" s="120"/>
+      <c r="B249" s="120"/>
       <c r="C249" s="82" t="s">
         <v>30</v>
       </c>
@@ -20664,8 +20686,8 @@
       </c>
     </row>
     <row r="250" spans="1:19">
-      <c r="A250" s="111"/>
-      <c r="B250" s="111"/>
+      <c r="A250" s="120"/>
+      <c r="B250" s="120"/>
       <c r="C250" s="82" t="s">
         <v>31</v>
       </c>
@@ -20729,8 +20751,8 @@
       </c>
     </row>
     <row r="251" spans="1:19">
-      <c r="A251" s="111"/>
-      <c r="B251" s="112"/>
+      <c r="A251" s="120"/>
+      <c r="B251" s="121"/>
       <c r="C251" s="82" t="s">
         <v>11</v>
       </c>
@@ -20794,8 +20816,8 @@
       </c>
     </row>
     <row r="252" spans="1:19">
-      <c r="A252" s="111"/>
-      <c r="B252" s="110" t="s">
+      <c r="A252" s="120"/>
+      <c r="B252" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C252" s="81"/>
@@ -20847,8 +20869,8 @@
       </c>
     </row>
     <row r="253" spans="1:19">
-      <c r="A253" s="111"/>
-      <c r="B253" s="111"/>
+      <c r="A253" s="120"/>
+      <c r="B253" s="120"/>
       <c r="C253" s="82" t="s">
         <v>30</v>
       </c>
@@ -20912,8 +20934,8 @@
       </c>
     </row>
     <row r="254" spans="1:19">
-      <c r="A254" s="111"/>
-      <c r="B254" s="111"/>
+      <c r="A254" s="120"/>
+      <c r="B254" s="120"/>
       <c r="C254" s="82" t="s">
         <v>31</v>
       </c>
@@ -20977,8 +20999,8 @@
       </c>
     </row>
     <row r="255" spans="1:19">
-      <c r="A255" s="112"/>
-      <c r="B255" s="112"/>
+      <c r="A255" s="121"/>
+      <c r="B255" s="121"/>
       <c r="C255" s="83" t="s">
         <v>11</v>
       </c>
@@ -21042,10 +21064,10 @@
       </c>
     </row>
     <row r="256" spans="1:19">
-      <c r="A256" s="110" t="s">
+      <c r="A256" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="B256" s="110" t="s">
+      <c r="B256" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C256" s="81"/>
@@ -21097,8 +21119,8 @@
       </c>
     </row>
     <row r="257" spans="1:19">
-      <c r="A257" s="111"/>
-      <c r="B257" s="111"/>
+      <c r="A257" s="120"/>
+      <c r="B257" s="120"/>
       <c r="C257" s="82" t="s">
         <v>30</v>
       </c>
@@ -21162,8 +21184,8 @@
       </c>
     </row>
     <row r="258" spans="1:19">
-      <c r="A258" s="111"/>
-      <c r="B258" s="111"/>
+      <c r="A258" s="120"/>
+      <c r="B258" s="120"/>
       <c r="C258" s="82" t="s">
         <v>31</v>
       </c>
@@ -21227,8 +21249,8 @@
       </c>
     </row>
     <row r="259" spans="1:19">
-      <c r="A259" s="111"/>
-      <c r="B259" s="112"/>
+      <c r="A259" s="120"/>
+      <c r="B259" s="121"/>
       <c r="C259" s="82" t="s">
         <v>11</v>
       </c>
@@ -21292,8 +21314,8 @@
       </c>
     </row>
     <row r="260" spans="1:19">
-      <c r="A260" s="111"/>
-      <c r="B260" s="110" t="s">
+      <c r="A260" s="120"/>
+      <c r="B260" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C260" s="81"/>
@@ -21345,8 +21367,8 @@
       </c>
     </row>
     <row r="261" spans="1:19">
-      <c r="A261" s="111"/>
-      <c r="B261" s="111"/>
+      <c r="A261" s="120"/>
+      <c r="B261" s="120"/>
       <c r="C261" s="82" t="s">
         <v>30</v>
       </c>
@@ -21410,8 +21432,8 @@
       </c>
     </row>
     <row r="262" spans="1:19">
-      <c r="A262" s="111"/>
-      <c r="B262" s="111"/>
+      <c r="A262" s="120"/>
+      <c r="B262" s="120"/>
       <c r="C262" s="82" t="s">
         <v>31</v>
       </c>
@@ -21475,8 +21497,8 @@
       </c>
     </row>
     <row r="263" spans="1:19">
-      <c r="A263" s="112"/>
-      <c r="B263" s="112"/>
+      <c r="A263" s="121"/>
+      <c r="B263" s="121"/>
       <c r="C263" s="82" t="s">
         <v>11</v>
       </c>
@@ -21540,10 +21562,10 @@
       </c>
     </row>
     <row r="264" spans="1:19">
-      <c r="A264" s="110" t="s">
+      <c r="A264" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B264" s="110" t="s">
+      <c r="B264" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C264" s="81"/>
@@ -21595,8 +21617,8 @@
       </c>
     </row>
     <row r="265" spans="1:19">
-      <c r="A265" s="111"/>
-      <c r="B265" s="111"/>
+      <c r="A265" s="120"/>
+      <c r="B265" s="120"/>
       <c r="C265" s="82" t="s">
         <v>30</v>
       </c>
@@ -21660,8 +21682,8 @@
       </c>
     </row>
     <row r="266" spans="1:19">
-      <c r="A266" s="111"/>
-      <c r="B266" s="111"/>
+      <c r="A266" s="120"/>
+      <c r="B266" s="120"/>
       <c r="C266" s="82" t="s">
         <v>31</v>
       </c>
@@ -21725,8 +21747,8 @@
       </c>
     </row>
     <row r="267" spans="1:19">
-      <c r="A267" s="111"/>
-      <c r="B267" s="112"/>
+      <c r="A267" s="120"/>
+      <c r="B267" s="121"/>
       <c r="C267" s="82" t="s">
         <v>11</v>
       </c>
@@ -21790,8 +21812,8 @@
       </c>
     </row>
     <row r="268" spans="1:19">
-      <c r="A268" s="111"/>
-      <c r="B268" s="110" t="s">
+      <c r="A268" s="120"/>
+      <c r="B268" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C268" s="81"/>
@@ -21843,8 +21865,8 @@
       </c>
     </row>
     <row r="269" spans="1:19">
-      <c r="A269" s="111"/>
-      <c r="B269" s="111"/>
+      <c r="A269" s="120"/>
+      <c r="B269" s="120"/>
       <c r="C269" s="82" t="s">
         <v>30</v>
       </c>
@@ -21908,8 +21930,8 @@
       </c>
     </row>
     <row r="270" spans="1:19">
-      <c r="A270" s="111"/>
-      <c r="B270" s="111"/>
+      <c r="A270" s="120"/>
+      <c r="B270" s="120"/>
       <c r="C270" s="82" t="s">
         <v>31</v>
       </c>
@@ -21973,8 +21995,8 @@
       </c>
     </row>
     <row r="271" spans="1:19">
-      <c r="A271" s="112"/>
-      <c r="B271" s="112"/>
+      <c r="A271" s="121"/>
+      <c r="B271" s="121"/>
       <c r="C271" s="83" t="s">
         <v>11</v>
       </c>
@@ -22038,10 +22060,10 @@
       </c>
     </row>
     <row r="272" spans="1:19">
-      <c r="A272" s="110" t="s">
+      <c r="A272" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="B272" s="110" t="s">
+      <c r="B272" s="119" t="s">
         <v>93</v>
       </c>
       <c r="C272" s="81"/>
@@ -22093,8 +22115,8 @@
       </c>
     </row>
     <row r="273" spans="1:19">
-      <c r="A273" s="111"/>
-      <c r="B273" s="111"/>
+      <c r="A273" s="120"/>
+      <c r="B273" s="120"/>
       <c r="C273" s="82" t="s">
         <v>30</v>
       </c>
@@ -22158,8 +22180,8 @@
       </c>
     </row>
     <row r="274" spans="1:19">
-      <c r="A274" s="111"/>
-      <c r="B274" s="111"/>
+      <c r="A274" s="120"/>
+      <c r="B274" s="120"/>
       <c r="C274" s="82" t="s">
         <v>31</v>
       </c>
@@ -22223,8 +22245,8 @@
       </c>
     </row>
     <row r="275" spans="1:19">
-      <c r="A275" s="111"/>
-      <c r="B275" s="112"/>
+      <c r="A275" s="120"/>
+      <c r="B275" s="121"/>
       <c r="C275" s="82" t="s">
         <v>11</v>
       </c>
@@ -22288,8 +22310,8 @@
       </c>
     </row>
     <row r="276" spans="1:19">
-      <c r="A276" s="111"/>
-      <c r="B276" s="110" t="s">
+      <c r="A276" s="120"/>
+      <c r="B276" s="119" t="s">
         <v>94</v>
       </c>
       <c r="C276" s="95"/>
@@ -22341,8 +22363,8 @@
       </c>
     </row>
     <row r="277" spans="1:19">
-      <c r="A277" s="111"/>
-      <c r="B277" s="111"/>
+      <c r="A277" s="120"/>
+      <c r="B277" s="120"/>
       <c r="C277" s="96" t="s">
         <v>30</v>
       </c>
@@ -22406,8 +22428,8 @@
       </c>
     </row>
     <row r="278" spans="1:19">
-      <c r="A278" s="111"/>
-      <c r="B278" s="111"/>
+      <c r="A278" s="120"/>
+      <c r="B278" s="120"/>
       <c r="C278" s="96" t="s">
         <v>31</v>
       </c>
@@ -22471,8 +22493,8 @@
       </c>
     </row>
     <row r="279" spans="1:19">
-      <c r="A279" s="112"/>
-      <c r="B279" s="112"/>
+      <c r="A279" s="121"/>
+      <c r="B279" s="121"/>
       <c r="C279" s="97" t="s">
         <v>11</v>
       </c>
@@ -22540,38 +22562,58 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A96:A103"/>
-    <mergeCell ref="A104:A111"/>
-    <mergeCell ref="A112:A119"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="A128:A135"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A64:A71"/>
-    <mergeCell ref="A72:A79"/>
-    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="B144:B147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="B276:B279"/>
+    <mergeCell ref="B232:B235"/>
+    <mergeCell ref="B236:B239"/>
+    <mergeCell ref="B240:B243"/>
+    <mergeCell ref="B244:B247"/>
+    <mergeCell ref="B248:B251"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="B228:B231"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="B256:B259"/>
+    <mergeCell ref="B260:B263"/>
+    <mergeCell ref="B264:B267"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="B272:B275"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B92:B95"/>
     <mergeCell ref="A256:A263"/>
     <mergeCell ref="A264:A271"/>
     <mergeCell ref="A136:A143"/>
@@ -22590,6 +22632,26 @@
     <mergeCell ref="A248:A255"/>
     <mergeCell ref="A168:A175"/>
     <mergeCell ref="A176:A183"/>
+    <mergeCell ref="A96:A103"/>
+    <mergeCell ref="A104:A111"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="A128:A135"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A64:A71"/>
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A88:A95"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B56:B59"/>
@@ -22602,59 +22664,19 @@
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="B276:B279"/>
-    <mergeCell ref="B232:B235"/>
-    <mergeCell ref="B236:B239"/>
-    <mergeCell ref="B240:B243"/>
-    <mergeCell ref="B244:B247"/>
-    <mergeCell ref="B248:B251"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B172:B175"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B228:B231"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B191"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
     <mergeCell ref="A2:S2"/>
-    <mergeCell ref="B256:B259"/>
-    <mergeCell ref="B260:B263"/>
-    <mergeCell ref="B264:B267"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="B272:B275"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="B144:B147"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="B140:B143"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.98425196850393704" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
